--- a/data/trans_orig/P14B23_2016_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P14B23_2016_2023-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>2932</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7737</v>
+        <v>7772</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006832964291878793</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00205887432443661</v>
+        <v>0.002069214151675643</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01803150033791383</v>
+        <v>0.01811289126062158</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -763,19 +763,19 @@
         <v>9136</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4171</v>
+        <v>4083</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18005</v>
+        <v>17127</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02632416385830324</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0120172957053379</v>
+        <v>0.01176552889495308</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05187871764392264</v>
+        <v>0.04934830499313787</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -784,19 +784,19 @@
         <v>12068</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6141</v>
+        <v>6047</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21387</v>
+        <v>20506</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01554847458483048</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007911592953497991</v>
+        <v>0.007790776940013996</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02755476874279232</v>
+        <v>0.02641989747891385</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>426160</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>421355</v>
+        <v>421320</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>428209</v>
+        <v>428204</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9931670357081213</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9819684996620853</v>
+        <v>0.9818871087393783</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9979411256755634</v>
+        <v>0.9979307858483244</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>324</v>
@@ -834,19 +834,19 @@
         <v>337919</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>329050</v>
+        <v>329928</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>342884</v>
+        <v>342972</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9736758361416967</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9481212823560784</v>
+        <v>0.9506516950068623</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9879827042946621</v>
+        <v>0.9882344711050469</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>717</v>
@@ -855,19 +855,19 @@
         <v>764079</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>754760</v>
+        <v>755641</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>770006</v>
+        <v>770100</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9844515254151696</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9724452312572077</v>
+        <v>0.9735801025210863</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.992088407046502</v>
+        <v>0.992209223059986</v>
       </c>
     </row>
     <row r="6">
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5587</v>
+        <v>6521</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004858285836547363</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01481029910080722</v>
+        <v>0.01728634419608245</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -980,19 +980,19 @@
         <v>4343</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1324</v>
+        <v>1102</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11212</v>
+        <v>10973</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01166570950809136</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003556450618321602</v>
+        <v>0.002960592218122191</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03011690115862733</v>
+        <v>0.02947569450321204</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -1001,19 +1001,19 @@
         <v>6176</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2744</v>
+        <v>2264</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13064</v>
+        <v>13524</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.00823950127232465</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003660619753623231</v>
+        <v>0.003021286773890477</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01742977000785361</v>
+        <v>0.01804380793809469</v>
       </c>
     </row>
     <row r="8">
@@ -1030,7 +1030,7 @@
         <v>375394</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>371640</v>
+        <v>370706</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>377227</v>
@@ -1039,7 +1039,7 @@
         <v>0.9951417141634527</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9851897008991928</v>
+        <v>0.9827136558039172</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1051,19 +1051,19 @@
         <v>367930</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>361061</v>
+        <v>361300</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>370949</v>
+        <v>371171</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9883342904919087</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9698830988413726</v>
+        <v>0.9705243054967883</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9964435493816785</v>
+        <v>0.9970394077818808</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>700</v>
@@ -1072,19 +1072,19 @@
         <v>743324</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>736436</v>
+        <v>735976</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>746756</v>
+        <v>747236</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9917604987276754</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9825702299921469</v>
+        <v>0.9819561920619061</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9963393802463769</v>
+        <v>0.9969787132261095</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>6261</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2390</v>
+        <v>2510</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13207</v>
+        <v>12911</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01199546753936619</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004578628307515437</v>
+        <v>0.004808606490013748</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02530488541575203</v>
+        <v>0.02473770694979312</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1197,19 +1197,19 @@
         <v>12906</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6708</v>
+        <v>6507</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21262</v>
+        <v>21697</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07769201389973093</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04037890001400327</v>
+        <v>0.03917222031855053</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1279917161912947</v>
+        <v>0.1306078857865483</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -1218,19 +1218,19 @@
         <v>19167</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11420</v>
+        <v>11881</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30042</v>
+        <v>29893</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02785755419405456</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01659746209679363</v>
+        <v>0.01726806602376163</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04366381090077345</v>
+        <v>0.04344616064895448</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>515653</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>508707</v>
+        <v>509003</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>519524</v>
+        <v>519404</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9880045324606338</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.974695114584248</v>
+        <v>0.9752622930502068</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9954213716924846</v>
+        <v>0.9951913935099861</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>142</v>
@@ -1268,19 +1268,19 @@
         <v>153217</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>144861</v>
+        <v>144426</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>159415</v>
+        <v>159616</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9223079861002691</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8720082838087053</v>
+        <v>0.8693921142134509</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9596210999859968</v>
+        <v>0.9608277796814494</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>638</v>
@@ -1289,19 +1289,19 @@
         <v>668869</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>657994</v>
+        <v>658143</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>676616</v>
+        <v>676155</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9721424458059454</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9563361890992266</v>
+        <v>0.9565538393510455</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9834025379032064</v>
+        <v>0.9827319339762384</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>19381</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12041</v>
+        <v>11480</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30716</v>
+        <v>30202</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01685843275652777</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01047357378993799</v>
+        <v>0.009985694229419006</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0267175504673004</v>
+        <v>0.02627098514598237</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -1414,19 +1414,19 @@
         <v>26621</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17492</v>
+        <v>18202</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>39139</v>
+        <v>40241</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03223308447203882</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02117980074588583</v>
+        <v>0.02203948105021663</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04739124311896998</v>
+        <v>0.04872468522160226</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>43</v>
@@ -1435,19 +1435,19 @@
         <v>46002</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>33446</v>
+        <v>33122</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>62653</v>
+        <v>60301</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0232859003468759</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01693050554005004</v>
+        <v>0.01676642482093347</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03171471136962362</v>
+        <v>0.03052414979919949</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>1130257</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1118922</v>
+        <v>1119436</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1137597</v>
+        <v>1138158</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9831415672434722</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9732824495326996</v>
+        <v>0.9737290148540176</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.989526426210062</v>
+        <v>0.9900143057705809</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>774</v>
@@ -1485,19 +1485,19 @@
         <v>799255</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>786737</v>
+        <v>785635</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>808384</v>
+        <v>807674</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9677669155279612</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9526087568810304</v>
+        <v>0.9512753147783974</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9788201992541142</v>
+        <v>0.9779605189497832</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1858</v>
@@ -1506,19 +1506,19 @@
         <v>1929512</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1912861</v>
+        <v>1915213</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1942068</v>
+        <v>1942392</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9767140996531241</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9682852886303762</v>
+        <v>0.9694758502008004</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.98306949445995</v>
+        <v>0.9832335751790665</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>15148</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8977</v>
+        <v>8828</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25038</v>
+        <v>24802</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02440463229349287</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01446288623523322</v>
+        <v>0.01422171782159304</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04033862997143238</v>
+        <v>0.03995723022486313</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>42</v>
@@ -1631,19 +1631,19 @@
         <v>46331</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>32860</v>
+        <v>35137</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>60037</v>
+        <v>62158</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06275850976162822</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04451044244330865</v>
+        <v>0.04759510486941636</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08132465669008092</v>
+        <v>0.08419724610164103</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>57</v>
@@ -1652,19 +1652,19 @@
         <v>61479</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>45870</v>
+        <v>46748</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>79712</v>
+        <v>78125</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04524022202979835</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03375407665381588</v>
+        <v>0.0343998375993735</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05865704474424403</v>
+        <v>0.0574889281575949</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>605558</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>595668</v>
+        <v>595904</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>611729</v>
+        <v>611878</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9755953677065071</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9596613700285673</v>
+        <v>0.9600427697751368</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9855371137647667</v>
+        <v>0.985778282178407</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>657</v>
@@ -1702,19 +1702,19 @@
         <v>691913</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>678207</v>
+        <v>676086</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>705384</v>
+        <v>703107</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9372414902383718</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9186753433099193</v>
+        <v>0.9158027538983589</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9554895575566916</v>
+        <v>0.9524048951305836</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1239</v>
@@ -1723,19 +1723,19 @@
         <v>1297471</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1279238</v>
+        <v>1280825</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1313080</v>
+        <v>1312202</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9547597779702016</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.941342955255756</v>
+        <v>0.9425110718424051</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.966245923346184</v>
+        <v>0.9656001624006266</v>
       </c>
     </row>
     <row r="18">
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4829</v>
+        <v>4045</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003313336107214264</v>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01681781793591863</v>
+        <v>0.01408821079189278</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>50</v>
@@ -1848,19 +1848,19 @@
         <v>55627</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>40292</v>
+        <v>41487</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>71332</v>
+        <v>71317</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05145612633027064</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03727161457200272</v>
+        <v>0.03837632041424533</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0659844107859439</v>
+        <v>0.06597018550152818</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>51</v>
@@ -1869,19 +1869,19 @@
         <v>56578</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>42891</v>
+        <v>42276</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>73074</v>
+        <v>72477</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04135231229786228</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03134844717191433</v>
+        <v>0.03089920565636373</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05340941511076348</v>
+        <v>0.05297312111446758</v>
       </c>
     </row>
     <row r="20">
@@ -1898,7 +1898,7 @@
         <v>286194</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>282316</v>
+        <v>283100</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>287145</v>
@@ -1907,7 +1907,7 @@
         <v>0.9966866638927857</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9831821820640815</v>
+        <v>0.9859117892081081</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1919,19 +1919,19 @@
         <v>1025421</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1009716</v>
+        <v>1009731</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1040756</v>
+        <v>1039561</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9485438736697294</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9340155892140561</v>
+        <v>0.9340298144984719</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9627283854279973</v>
+        <v>0.9616236795857548</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1212</v>
@@ -1940,19 +1940,19 @@
         <v>1311615</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1295119</v>
+        <v>1295716</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1325302</v>
+        <v>1325917</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9586476877021377</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9465905848892365</v>
+        <v>0.9470268788855323</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9686515528280857</v>
+        <v>0.9691007943436359</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>46506</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>34183</v>
+        <v>34216</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>62242</v>
+        <v>61962</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01373587438686939</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01009611684108514</v>
+        <v>0.01010599449599706</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01838372282534434</v>
+        <v>0.01830088699748134</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>139</v>
@@ -2065,19 +2065,19 @@
         <v>154963</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>131565</v>
+        <v>130404</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>181449</v>
+        <v>179548</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04389126788021984</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0372640297290078</v>
+        <v>0.0369352877708528</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05139302659178681</v>
+        <v>0.05085445910884896</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>185</v>
@@ -2086,19 +2086,19 @@
         <v>201469</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>176097</v>
+        <v>173077</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>233527</v>
+        <v>232123</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0291294476770542</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02546104314701897</v>
+        <v>0.02502442826028439</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03376455209744948</v>
+        <v>0.03356154679764146</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>3339216</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3323480</v>
+        <v>3323760</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3351539</v>
+        <v>3351506</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9862641256131306</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9816162771746557</v>
+        <v>0.9816991130025188</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.989903883158915</v>
+        <v>0.9898940055040033</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3186</v>
@@ -2136,19 +2136,19 @@
         <v>3375656</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3349170</v>
+        <v>3351071</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3399054</v>
+        <v>3400215</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9561087321197802</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9486069734082132</v>
+        <v>0.949145540891151</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9627359702709921</v>
+        <v>0.9630647122291471</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6364</v>
@@ -2157,19 +2157,19 @@
         <v>6714872</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6682814</v>
+        <v>6684218</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6740244</v>
+        <v>6743264</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9708705523229458</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9662354479025506</v>
+        <v>0.9664384532023585</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.974538956852981</v>
+        <v>0.9749755717397156</v>
       </c>
     </row>
     <row r="24">
@@ -2503,19 +2503,19 @@
         <v>10890</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5360</v>
+        <v>5096</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21200</v>
+        <v>19452</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01985404669681521</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009772299029739391</v>
+        <v>0.009291046998025576</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03864924128520557</v>
+        <v>0.03546385456288184</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -2524,19 +2524,19 @@
         <v>18107</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10272</v>
+        <v>11774</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26527</v>
+        <v>26977</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.0370737225612852</v>
+        <v>0.03707372256128521</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02103122716587491</v>
+        <v>0.02410725388876766</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05431345290253466</v>
+        <v>0.05523456307484727</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>34</v>
@@ -2545,19 +2545,19 @@
         <v>28997</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20392</v>
+        <v>20384</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>43124</v>
+        <v>40763</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02796483349426435</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01966609052761793</v>
+        <v>0.01965845894007378</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04158823123112415</v>
+        <v>0.0393111203794787</v>
       </c>
     </row>
     <row r="5">
@@ -2574,19 +2574,19 @@
         <v>537624</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>527314</v>
+        <v>529062</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>543154</v>
+        <v>543418</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9801459533031845</v>
+        <v>0.9801459533031848</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9613507587147945</v>
+        <v>0.9645361454371186</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9902277009702607</v>
+        <v>0.9907089530019744</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>662</v>
@@ -2595,19 +2595,19 @@
         <v>470304</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>461884</v>
+        <v>461434</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>478139</v>
+        <v>476637</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9629262774387148</v>
+        <v>0.9629262774387147</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9456865470974654</v>
+        <v>0.9447654369251531</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9789687728341251</v>
+        <v>0.9758927461112326</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1204</v>
@@ -2616,19 +2616,19 @@
         <v>1007928</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>993801</v>
+        <v>996162</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1016533</v>
+        <v>1016541</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9720351665057357</v>
+        <v>0.9720351665057356</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9584117687688759</v>
+        <v>0.9606888796205214</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.980333909472382</v>
+        <v>0.9803415410599261</v>
       </c>
     </row>
     <row r="6">
@@ -2720,19 +2720,19 @@
         <v>10362</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4706</v>
+        <v>5765</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17736</v>
+        <v>17781</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02144436137323448</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009739644642221422</v>
+        <v>0.0119302180359129</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03670348725593626</v>
+        <v>0.0367975306491773</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -2741,19 +2741,19 @@
         <v>19514</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13640</v>
+        <v>13342</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27729</v>
+        <v>28006</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.04618725302435591</v>
+        <v>0.04618725302435593</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03228581219051176</v>
+        <v>0.03157995825822422</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06563273940869227</v>
+        <v>0.06628783338120678</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>41</v>
@@ -2762,19 +2762,19 @@
         <v>29876</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21618</v>
+        <v>21468</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41232</v>
+        <v>40729</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.0329863983458614</v>
+        <v>0.03298639834586139</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02386894079525798</v>
+        <v>0.02370327078114099</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04552532819753358</v>
+        <v>0.04496918828578474</v>
       </c>
     </row>
     <row r="8">
@@ -2791,19 +2791,19 @@
         <v>472850</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>465476</v>
+        <v>465431</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>478506</v>
+        <v>477447</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9785556386267655</v>
+        <v>0.9785556386267654</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9632965127440637</v>
+        <v>0.9632024693508225</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9902603553577786</v>
+        <v>0.988069781964087</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>559</v>
@@ -2812,19 +2812,19 @@
         <v>402978</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>394763</v>
+        <v>394486</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>408852</v>
+        <v>409150</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.953812746975644</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9343672605913079</v>
+        <v>0.9337121666187933</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9677141878094886</v>
+        <v>0.9684200417417757</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1029</v>
@@ -2833,19 +2833,19 @@
         <v>875828</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>864472</v>
+        <v>864975</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>884086</v>
+        <v>884236</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9670136016541385</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.954474671802466</v>
+        <v>0.9550308117142151</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.976131059204742</v>
+        <v>0.976296729218859</v>
       </c>
     </row>
     <row r="9">
@@ -2937,19 +2937,19 @@
         <v>20825</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12575</v>
+        <v>13242</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30831</v>
+        <v>33278</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.04423855742839992</v>
+        <v>0.04423855742839991</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02671271532041017</v>
+        <v>0.02812932345343253</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06549365687108955</v>
+        <v>0.07069153506803848</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -2958,19 +2958,19 @@
         <v>13093</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8359</v>
+        <v>8607</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19197</v>
+        <v>19282</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.06983228952241265</v>
+        <v>0.06983228952241263</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04458228838225445</v>
+        <v>0.04590443841643665</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1023866538118719</v>
+        <v>0.1028378119883477</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>44</v>
@@ -2979,19 +2979,19 @@
         <v>33918</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23618</v>
+        <v>24260</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>44943</v>
+        <v>45714</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05152883154710826</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03588024514177335</v>
+        <v>0.0368564781911483</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06827785740181479</v>
+        <v>0.06944856534474407</v>
       </c>
     </row>
     <row r="11">
@@ -3008,19 +3008,19 @@
         <v>449918</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>439912</v>
+        <v>437465</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>458168</v>
+        <v>457501</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9557614425716002</v>
+        <v>0.9557614425716001</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9345063431289106</v>
+        <v>0.9293084649319614</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9732872846795899</v>
+        <v>0.9718706765465674</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>266</v>
@@ -3029,19 +3029,19 @@
         <v>174404</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>168300</v>
+        <v>168215</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>179138</v>
+        <v>178890</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9301677104775874</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8976133461881283</v>
+        <v>0.8971621880116522</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9554177116177456</v>
+        <v>0.9540955615835627</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>732</v>
@@ -3050,19 +3050,19 @@
         <v>624323</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>613298</v>
+        <v>612527</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>634623</v>
+        <v>633981</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9484711684528917</v>
+        <v>0.9484711684528918</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9317221425981854</v>
+        <v>0.930551434655256</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9641197548582269</v>
+        <v>0.9631435218088515</v>
       </c>
     </row>
     <row r="12">
@@ -3154,19 +3154,19 @@
         <v>43276</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>32695</v>
+        <v>32345</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58330</v>
+        <v>58325</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03825988082461465</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02890568512478201</v>
+        <v>0.02859559682559745</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05156930201399539</v>
+        <v>0.05156429371599375</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>73</v>
@@ -3175,19 +3175,19 @@
         <v>47044</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37829</v>
+        <v>36973</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>58055</v>
+        <v>57629</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05471787874719845</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04400031734812101</v>
+        <v>0.04300450922915986</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06752467386815356</v>
+        <v>0.06702986156687474</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>118</v>
@@ -3196,19 +3196,19 @@
         <v>90320</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>73581</v>
+        <v>73400</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>108073</v>
+        <v>107409</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.0453672814435881</v>
+        <v>0.04536728144358809</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03695925911377913</v>
+        <v>0.03686852919636744</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05428485958499918</v>
+        <v>0.0539511887421908</v>
       </c>
     </row>
     <row r="14">
@@ -3225,19 +3225,19 @@
         <v>1087827</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1072773</v>
+        <v>1072778</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1098408</v>
+        <v>1098758</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9617401191753854</v>
+        <v>0.9617401191753852</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9484306979860047</v>
+        <v>0.9484357062840063</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.971094314875218</v>
+        <v>0.9714044031744025</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1155</v>
@@ -3246,19 +3246,19 @@
         <v>812709</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>801698</v>
+        <v>802124</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>821924</v>
+        <v>822780</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9452821212528015</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9324753261318466</v>
+        <v>0.9329701384331254</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9559996826518791</v>
+        <v>0.9569954907708403</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2227</v>
@@ -3267,19 +3267,19 @@
         <v>1900535</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1882782</v>
+        <v>1883446</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1917274</v>
+        <v>1917455</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9546327185564119</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9457151404150008</v>
+        <v>0.9460488112578092</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9630407408862209</v>
+        <v>0.9631314708036325</v>
       </c>
     </row>
     <row r="15">
@@ -3371,19 +3371,19 @@
         <v>18037</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10993</v>
+        <v>11137</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27936</v>
+        <v>28250</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03184578441225105</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01940901802661519</v>
+        <v>0.01966351295191458</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04932196104632958</v>
+        <v>0.04987638345165498</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>109</v>
@@ -3392,19 +3392,19 @@
         <v>65409</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>54487</v>
+        <v>54834</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>78361</v>
+        <v>78951</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07892668149225296</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06574792438037291</v>
+        <v>0.06616570235784162</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09455574786004065</v>
+        <v>0.09526727527609868</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>128</v>
@@ -3413,19 +3413,19 @@
         <v>83446</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>68938</v>
+        <v>69471</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>100841</v>
+        <v>98121</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05981270385854869</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04941324031955754</v>
+        <v>0.04979526772208739</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07228058438177846</v>
+        <v>0.07033125956619354</v>
       </c>
     </row>
     <row r="17">
@@ -3442,19 +3442,19 @@
         <v>548358</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>538459</v>
+        <v>538145</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>555402</v>
+        <v>555258</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9681542155877487</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9506780389536705</v>
+        <v>0.9501236165483451</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9805909819733849</v>
+        <v>0.9803364870480855</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1178</v>
@@ -3463,19 +3463,19 @@
         <v>763321</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>750369</v>
+        <v>749779</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>774243</v>
+        <v>773896</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9210733185077471</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9054442521399594</v>
+        <v>0.9047327247239013</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9342520756196272</v>
+        <v>0.9338342976421583</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1704</v>
@@ -3484,19 +3484,19 @@
         <v>1311680</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1294285</v>
+        <v>1297005</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1326188</v>
+        <v>1325655</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9401872961414512</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9277194156182219</v>
+        <v>0.9296687404338067</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9505867596804424</v>
+        <v>0.9502047322779126</v>
       </c>
     </row>
     <row r="18">
@@ -3588,19 +3588,19 @@
         <v>10606</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4803</v>
+        <v>4589</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24573</v>
+        <v>22732</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04470758721624866</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02024717389381033</v>
+        <v>0.01934454553706337</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1035826132376948</v>
+        <v>0.09582175376390491</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>80</v>
@@ -3609,19 +3609,19 @@
         <v>52817</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41771</v>
+        <v>40732</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>66514</v>
+        <v>65334</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.06260886164520248</v>
+        <v>0.06260886164520249</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04951551732349754</v>
+        <v>0.04828341235721278</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0788456828317312</v>
+        <v>0.07744655952289566</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>88</v>
@@ -3630,19 +3630,19 @@
         <v>63422</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>49873</v>
+        <v>48564</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>80441</v>
+        <v>79548</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05867974869801119</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04614376296461963</v>
+        <v>0.04493244272483754</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07442601219970682</v>
+        <v>0.07359906499518522</v>
       </c>
     </row>
     <row r="20">
@@ -3659,19 +3659,19 @@
         <v>226622</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>212655</v>
+        <v>214496</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>232425</v>
+        <v>232639</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9552924127837514</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8964173867623055</v>
+        <v>0.9041782462360957</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9797528261061896</v>
+        <v>0.9806554544629368</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1078</v>
@@ -3680,19 +3680,19 @@
         <v>790779</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>777082</v>
+        <v>778262</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>801825</v>
+        <v>802864</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9373911383547975</v>
+        <v>0.9373911383547976</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9211543171682688</v>
+        <v>0.9225534404771043</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9504844826765024</v>
+        <v>0.9517165876427871</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1182</v>
@@ -3701,19 +3701,19 @@
         <v>1017402</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1000383</v>
+        <v>1001276</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1030951</v>
+        <v>1032260</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9413202513019888</v>
+        <v>0.9413202513019887</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9255739878002929</v>
+        <v>0.9264009350048146</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9538562370353801</v>
+        <v>0.9550675572751622</v>
       </c>
     </row>
     <row r="21">
@@ -3805,19 +3805,19 @@
         <v>113996</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>94599</v>
+        <v>92701</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>137847</v>
+        <v>135779</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03316554197964525</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02752214597685845</v>
+        <v>0.02696985636472218</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04010452783910981</v>
+        <v>0.03950271955093201</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>339</v>
@@ -3826,19 +3826,19 @@
         <v>215984</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>192831</v>
+        <v>191986</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>239064</v>
+        <v>239807</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.0594917859726631</v>
+        <v>0.05949178597266308</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05311454481784032</v>
+        <v>0.0528816345173684</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06584923139752913</v>
+        <v>0.06605372715100116</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>453</v>
@@ -3847,19 +3847,19 @@
         <v>329980</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>296618</v>
+        <v>300204</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>362664</v>
+        <v>365087</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04668864308197104</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04196827747882835</v>
+        <v>0.04247566846444276</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05131305606049953</v>
+        <v>0.0516559451436065</v>
       </c>
     </row>
     <row r="23">
@@ -3876,19 +3876,19 @@
         <v>3323199</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3299348</v>
+        <v>3301416</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3342596</v>
+        <v>3344494</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9668344580203548</v>
+        <v>0.9668344580203547</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9598954721608903</v>
+        <v>0.9604972804490678</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9724778540231417</v>
+        <v>0.9730301436352776</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4898</v>
@@ -3897,19 +3897,19 @@
         <v>3414495</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3391415</v>
+        <v>3390672</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3437648</v>
+        <v>3438493</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9405082140273371</v>
+        <v>0.940508214027337</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9341507686024708</v>
+        <v>0.9339462728489989</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9468854551821596</v>
+        <v>0.9471183654826318</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8078</v>
@@ -3918,19 +3918,19 @@
         <v>6737694</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6705010</v>
+        <v>6702587</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6771056</v>
+        <v>6767470</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9533113569180292</v>
+        <v>0.953311356918029</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9486869439395006</v>
+        <v>0.9483440548563935</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9580317225211716</v>
+        <v>0.9575243315355572</v>
       </c>
     </row>
     <row r="24">
